--- a/TFG/res/pacientData/2/Resultats.xlsx
+++ b/TFG/res/pacientData/2/Resultats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="500">
   <si>
     <t>Pacient</t>
   </si>
@@ -1496,16 +1496,22 @@
     <t>2</t>
   </si>
   <si>
-    <t>18/02/1955</t>
-  </si>
-  <si>
-    <t>Estudis primaris complets</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Separat</t>
+    <t>Dona</t>
+  </si>
+  <si>
+    <t>Només castellà</t>
+  </si>
+  <si>
+    <t>03/02/1955</t>
+  </si>
+  <si>
+    <t>Sense estudis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sap llegir i escriure</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -3324,25 +3330,25 @@
         <v>493</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>493</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>494</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>495</v>
       </c>
       <c r="E2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
